--- a/xlsx_files/CS Freshmen.xlsx
+++ b/xlsx_files/CS Freshmen.xlsx
@@ -43,7 +43,7 @@
       <sz val="14"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -54,6 +54,30 @@
       <patternFill patternType="solid">
         <fgColor rgb="00E0E0E0"/>
         <bgColor rgb="00E0E0E0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0092D050"/>
+        <bgColor rgb="0092D050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -96,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -108,11 +132,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -543,12 +576,18 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="F6" s="5" t="inlineStr">
-        <is>
-          <t>PHYSICS II
-Doolos Aibek uulu
-White classroom
-09:00-10:30</t>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Russian Language (Beginner Level)
+09:00-10:30
+room:Yellow classroom: 209</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="inlineStr">
+        <is>
+          <t>Physics II
+09:00-10:30
+room:White classroom: 202</t>
         </is>
       </c>
     </row>
@@ -558,7 +597,8 @@
           <t>09:15</t>
         </is>
       </c>
-      <c r="F7" s="6" t="n"/>
+      <c r="E7" s="7" t="n"/>
+      <c r="F7" s="7" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -566,7 +606,8 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="F8" s="6" t="n"/>
+      <c r="E8" s="7" t="n"/>
+      <c r="F8" s="7" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -574,7 +615,8 @@
           <t>09:45</t>
         </is>
       </c>
-      <c r="F9" s="6" t="n"/>
+      <c r="E9" s="7" t="n"/>
+      <c r="F9" s="7" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -582,7 +624,8 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="F10" s="6" t="n"/>
+      <c r="E10" s="7" t="n"/>
+      <c r="F10" s="7" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -590,7 +633,8 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="F11" s="7" t="n"/>
+      <c r="E11" s="8" t="n"/>
+      <c r="F11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
@@ -612,6 +656,34 @@
           <t>11:00</t>
         </is>
       </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>Russian Language (Intermediate Level)
+11:00-12:30
+room:Yellow classroom: 209</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>Sociology
+11:00-12:30
+room:Yellow classroom: 209</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>Russian Language (Intermediate Level)
+11:00-12:30
+room:Yellow classroom: 209</t>
+        </is>
+      </c>
+      <c r="E14" s="9" t="inlineStr">
+        <is>
+          <t>Russian Language (Beginner Level)
+11:00-12:30
+room:Green classroom: 204</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
@@ -619,6 +691,10 @@
           <t>11:15</t>
         </is>
       </c>
+      <c r="B15" s="7" t="n"/>
+      <c r="C15" s="7" t="n"/>
+      <c r="D15" s="7" t="n"/>
+      <c r="E15" s="7" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
@@ -626,6 +702,10 @@
           <t>11:30</t>
         </is>
       </c>
+      <c r="B16" s="7" t="n"/>
+      <c r="C16" s="7" t="n"/>
+      <c r="D16" s="7" t="n"/>
+      <c r="E16" s="7" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
@@ -633,6 +713,10 @@
           <t>11:45</t>
         </is>
       </c>
+      <c r="B17" s="7" t="n"/>
+      <c r="C17" s="7" t="n"/>
+      <c r="D17" s="7" t="n"/>
+      <c r="E17" s="7" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
@@ -640,6 +724,10 @@
           <t>12:00</t>
         </is>
       </c>
+      <c r="B18" s="7" t="n"/>
+      <c r="C18" s="7" t="n"/>
+      <c r="D18" s="7" t="n"/>
+      <c r="E18" s="7" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
@@ -647,6 +735,10 @@
           <t>12:15</t>
         </is>
       </c>
+      <c r="B19" s="8" t="n"/>
+      <c r="C19" s="8" t="n"/>
+      <c r="D19" s="8" t="n"/>
+      <c r="E19" s="8" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -696,12 +788,32 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="F26" s="5" t="inlineStr">
-        <is>
-          <t>MATHEMATICS 2: CALCULUS II
-Mukhammadmuso Abduzhabbarov
-Red classroom
-14:00-15:30</t>
+      <c r="B26" s="9" t="inlineStr">
+        <is>
+          <t>Russian Language (Elementary Level)
+14:00-15:30
+room:Green classroom: 204</t>
+        </is>
+      </c>
+      <c r="C26" s="9" t="inlineStr">
+        <is>
+          <t>Sociology
+14:00-15:30
+room:Green classroom: 204</t>
+        </is>
+      </c>
+      <c r="D26" s="10" t="inlineStr">
+        <is>
+          <t>Physics II
+14:00-15:30
+room:Red classroom: 201</t>
+        </is>
+      </c>
+      <c r="F26" s="10" t="inlineStr">
+        <is>
+          <t>Mathematics 2: Calculus II
+14:00-15:30
+room:Red classroom: 201</t>
         </is>
       </c>
     </row>
@@ -711,7 +823,10 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="F27" s="6" t="n"/>
+      <c r="B27" s="7" t="n"/>
+      <c r="C27" s="7" t="n"/>
+      <c r="D27" s="7" t="n"/>
+      <c r="F27" s="7" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
@@ -719,7 +834,10 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="F28" s="6" t="n"/>
+      <c r="B28" s="7" t="n"/>
+      <c r="C28" s="7" t="n"/>
+      <c r="D28" s="7" t="n"/>
+      <c r="F28" s="7" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
@@ -727,7 +845,10 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="F29" s="6" t="n"/>
+      <c r="B29" s="7" t="n"/>
+      <c r="C29" s="7" t="n"/>
+      <c r="D29" s="7" t="n"/>
+      <c r="F29" s="7" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
@@ -735,7 +856,10 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="F30" s="6" t="n"/>
+      <c r="B30" s="7" t="n"/>
+      <c r="C30" s="7" t="n"/>
+      <c r="D30" s="7" t="n"/>
+      <c r="F30" s="7" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -743,7 +867,10 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="F31" s="7" t="n"/>
+      <c r="B31" s="8" t="n"/>
+      <c r="C31" s="8" t="n"/>
+      <c r="D31" s="8" t="n"/>
+      <c r="F31" s="8" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
@@ -765,12 +892,11 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="F34" s="5" t="inlineStr">
-        <is>
-          <t>PROGRAMMING II
-Nurlan Shaidullaev
-Red classroom
-16:00-17:30</t>
+      <c r="F34" s="10" t="inlineStr">
+        <is>
+          <t>Programming II
+16:00-17:30
+room:Red classroom: 201</t>
         </is>
       </c>
     </row>
@@ -780,7 +906,7 @@
           <t>16:15</t>
         </is>
       </c>
-      <c r="F35" s="6" t="n"/>
+      <c r="F35" s="7" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
@@ -788,7 +914,7 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="F36" s="6" t="n"/>
+      <c r="F36" s="7" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
@@ -796,7 +922,7 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="F37" s="6" t="n"/>
+      <c r="F37" s="7" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
@@ -804,7 +930,7 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="F38" s="6" t="n"/>
+      <c r="F38" s="7" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
@@ -812,7 +938,7 @@
           <t>17:15</t>
         </is>
       </c>
-      <c r="F39" s="7" t="n"/>
+      <c r="F39" s="8" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
@@ -1004,8 +1130,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="18">
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="F6:F11"/>
+    <mergeCell ref="B26:B31"/>
     <mergeCell ref="F26:F31"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="D26:D31"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="A3:A4"/>
@@ -1013,8 +1144,11 @@
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E6:E11"/>
     <mergeCell ref="F34:F39"/>
-    <mergeCell ref="F6:F11"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="E14:E19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/xlsx_files/CS Freshmen.xlsx
+++ b/xlsx_files/CS Freshmen.xlsx
@@ -43,7 +43,7 @@
       <sz val="14"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -66,6 +66,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00FFFFFF"/>
         <bgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D0CECE"/>
+        <bgColor rgb="00D0CECE"/>
       </patternFill>
     </fill>
     <fill>
@@ -120,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -135,15 +141,18 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -576,14 +585,21 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="E6" s="5" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>Russian Language (Beginner Level)
 09:00-10:30
+room:Green classroom: 204</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>Sociology
+09:00-10:30
 room:Yellow classroom: 209</t>
         </is>
       </c>
-      <c r="F6" s="6" t="inlineStr">
+      <c r="F6" s="7" t="inlineStr">
         <is>
           <t>Physics II
 09:00-10:30
@@ -597,8 +613,9 @@
           <t>09:15</t>
         </is>
       </c>
-      <c r="E7" s="7" t="n"/>
-      <c r="F7" s="7" t="n"/>
+      <c r="D7" s="8" t="n"/>
+      <c r="E7" s="8" t="n"/>
+      <c r="F7" s="8" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -606,8 +623,9 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="E8" s="7" t="n"/>
-      <c r="F8" s="7" t="n"/>
+      <c r="D8" s="8" t="n"/>
+      <c r="E8" s="8" t="n"/>
+      <c r="F8" s="8" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -615,8 +633,9 @@
           <t>09:45</t>
         </is>
       </c>
-      <c r="E9" s="7" t="n"/>
-      <c r="F9" s="7" t="n"/>
+      <c r="D9" s="8" t="n"/>
+      <c r="E9" s="8" t="n"/>
+      <c r="F9" s="8" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -624,8 +643,9 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="E10" s="7" t="n"/>
-      <c r="F10" s="7" t="n"/>
+      <c r="D10" s="8" t="n"/>
+      <c r="E10" s="8" t="n"/>
+      <c r="F10" s="8" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -633,8 +653,9 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="E11" s="8" t="n"/>
-      <c r="F11" s="8" t="n"/>
+      <c r="D11" s="9" t="n"/>
+      <c r="E11" s="9" t="n"/>
+      <c r="F11" s="9" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
@@ -656,28 +677,14 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B14" s="5" t="inlineStr">
-        <is>
-          <t>Russian Language (Intermediate Level)
+      <c r="C14" s="10" t="inlineStr">
+        <is>
+          <t>Programming II
 11:00-12:30
-room:Yellow classroom: 209</t>
-        </is>
-      </c>
-      <c r="C14" s="5" t="inlineStr">
-        <is>
-          <t>Sociology
-11:00-12:30
-room:Yellow classroom: 209</t>
+room:Red classroom: 201</t>
         </is>
       </c>
       <c r="D14" s="5" t="inlineStr">
-        <is>
-          <t>Russian Language (Intermediate Level)
-11:00-12:30
-room:Yellow classroom: 209</t>
-        </is>
-      </c>
-      <c r="E14" s="9" t="inlineStr">
         <is>
           <t>Russian Language (Beginner Level)
 11:00-12:30
@@ -691,10 +698,8 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="B15" s="7" t="n"/>
-      <c r="C15" s="7" t="n"/>
-      <c r="D15" s="7" t="n"/>
-      <c r="E15" s="7" t="n"/>
+      <c r="C15" s="8" t="n"/>
+      <c r="D15" s="8" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
@@ -702,10 +707,8 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B16" s="7" t="n"/>
-      <c r="C16" s="7" t="n"/>
-      <c r="D16" s="7" t="n"/>
-      <c r="E16" s="7" t="n"/>
+      <c r="C16" s="8" t="n"/>
+      <c r="D16" s="8" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
@@ -713,10 +716,8 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="B17" s="7" t="n"/>
-      <c r="C17" s="7" t="n"/>
-      <c r="D17" s="7" t="n"/>
-      <c r="E17" s="7" t="n"/>
+      <c r="C17" s="8" t="n"/>
+      <c r="D17" s="8" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
@@ -724,10 +725,8 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B18" s="7" t="n"/>
-      <c r="C18" s="7" t="n"/>
-      <c r="D18" s="7" t="n"/>
-      <c r="E18" s="7" t="n"/>
+      <c r="C18" s="8" t="n"/>
+      <c r="D18" s="8" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
@@ -735,10 +734,8 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="B19" s="8" t="n"/>
-      <c r="C19" s="8" t="n"/>
-      <c r="D19" s="8" t="n"/>
-      <c r="E19" s="8" t="n"/>
+      <c r="C19" s="9" t="n"/>
+      <c r="D19" s="9" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -788,25 +785,25 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B26" s="9" t="inlineStr">
+      <c r="B26" s="10" t="inlineStr">
+        <is>
+          <t>Mathematics 2: Calculus II
+14:00-15:30
+room:Red classroom: 201</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
         <is>
           <t>Russian Language (Elementary Level)
 14:00-15:30
 room:Green classroom: 204</t>
         </is>
       </c>
-      <c r="C26" s="9" t="inlineStr">
-        <is>
-          <t>Sociology
+      <c r="D26" s="5" t="inlineStr">
+        <is>
+          <t>Russian Language (Intermediate Level)
 14:00-15:30
 room:Green classroom: 204</t>
-        </is>
-      </c>
-      <c r="D26" s="10" t="inlineStr">
-        <is>
-          <t>Physics II
-14:00-15:30
-room:Red classroom: 201</t>
         </is>
       </c>
       <c r="F26" s="10" t="inlineStr">
@@ -823,10 +820,10 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="B27" s="7" t="n"/>
-      <c r="C27" s="7" t="n"/>
-      <c r="D27" s="7" t="n"/>
-      <c r="F27" s="7" t="n"/>
+      <c r="B27" s="8" t="n"/>
+      <c r="C27" s="8" t="n"/>
+      <c r="D27" s="8" t="n"/>
+      <c r="F27" s="8" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
@@ -834,10 +831,10 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B28" s="7" t="n"/>
-      <c r="C28" s="7" t="n"/>
-      <c r="D28" s="7" t="n"/>
-      <c r="F28" s="7" t="n"/>
+      <c r="B28" s="8" t="n"/>
+      <c r="C28" s="8" t="n"/>
+      <c r="D28" s="8" t="n"/>
+      <c r="F28" s="8" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
@@ -845,10 +842,10 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="B29" s="7" t="n"/>
-      <c r="C29" s="7" t="n"/>
-      <c r="D29" s="7" t="n"/>
-      <c r="F29" s="7" t="n"/>
+      <c r="B29" s="8" t="n"/>
+      <c r="C29" s="8" t="n"/>
+      <c r="D29" s="8" t="n"/>
+      <c r="F29" s="8" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
@@ -856,10 +853,10 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B30" s="7" t="n"/>
-      <c r="C30" s="7" t="n"/>
-      <c r="D30" s="7" t="n"/>
-      <c r="F30" s="7" t="n"/>
+      <c r="B30" s="8" t="n"/>
+      <c r="C30" s="8" t="n"/>
+      <c r="D30" s="8" t="n"/>
+      <c r="F30" s="8" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -867,10 +864,10 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="B31" s="8" t="n"/>
-      <c r="C31" s="8" t="n"/>
-      <c r="D31" s="8" t="n"/>
-      <c r="F31" s="8" t="n"/>
+      <c r="B31" s="9" t="n"/>
+      <c r="C31" s="9" t="n"/>
+      <c r="D31" s="9" t="n"/>
+      <c r="F31" s="9" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
@@ -890,6 +887,27 @@
       <c r="A34" s="4" t="inlineStr">
         <is>
           <t>16:00</t>
+        </is>
+      </c>
+      <c r="B34" s="5" t="inlineStr">
+        <is>
+          <t>Russian Language (Intermediate Level)
+16:00-17:30
+room:Green classroom: 204</t>
+        </is>
+      </c>
+      <c r="C34" s="11" t="inlineStr">
+        <is>
+          <t>Russian Language (Elementary Level)
+16:00-17:30
+room:Grey classroom: 203</t>
+        </is>
+      </c>
+      <c r="E34" s="11" t="inlineStr">
+        <is>
+          <t>Sociology
+16:00-17:30
+room:Grey classroom: 203</t>
         </is>
       </c>
       <c r="F34" s="10" t="inlineStr">
@@ -906,7 +924,10 @@
           <t>16:15</t>
         </is>
       </c>
-      <c r="F35" s="7" t="n"/>
+      <c r="B35" s="8" t="n"/>
+      <c r="C35" s="8" t="n"/>
+      <c r="E35" s="8" t="n"/>
+      <c r="F35" s="8" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
@@ -914,7 +935,10 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="F36" s="7" t="n"/>
+      <c r="B36" s="8" t="n"/>
+      <c r="C36" s="8" t="n"/>
+      <c r="E36" s="8" t="n"/>
+      <c r="F36" s="8" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
@@ -922,7 +946,10 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="F37" s="7" t="n"/>
+      <c r="B37" s="8" t="n"/>
+      <c r="C37" s="8" t="n"/>
+      <c r="E37" s="8" t="n"/>
+      <c r="F37" s="8" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
@@ -930,7 +957,10 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="F38" s="7" t="n"/>
+      <c r="B38" s="8" t="n"/>
+      <c r="C38" s="8" t="n"/>
+      <c r="E38" s="8" t="n"/>
+      <c r="F38" s="8" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
@@ -938,7 +968,10 @@
           <t>17:15</t>
         </is>
       </c>
-      <c r="F39" s="8" t="n"/>
+      <c r="B39" s="9" t="n"/>
+      <c r="C39" s="9" t="n"/>
+      <c r="E39" s="9" t="n"/>
+      <c r="F39" s="9" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
@@ -1130,25 +1163,27 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="F6:F11"/>
+  <mergeCells count="20">
     <mergeCell ref="B26:B31"/>
-    <mergeCell ref="F26:F31"/>
-    <mergeCell ref="C26:C31"/>
     <mergeCell ref="D26:D31"/>
-    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C34:C39"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="E3:E4"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F34:F39"/>
+    <mergeCell ref="D6:D11"/>
+    <mergeCell ref="F6:F11"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="A3:A4"/>
     <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E34:E39"/>
+    <mergeCell ref="F26:F31"/>
     <mergeCell ref="E6:E11"/>
-    <mergeCell ref="F34:F39"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="E14:E19"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D14:D19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/xlsx_files/CS Freshmen.xlsx
+++ b/xlsx_files/CS Freshmen.xlsx
@@ -43,7 +43,7 @@
       <sz val="14"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -66,12 +66,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00FFFFFF"/>
         <bgColor rgb="00FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D0CECE"/>
-        <bgColor rgb="00D0CECE"/>
       </patternFill>
     </fill>
     <fill>
@@ -126,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -138,10 +132,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -149,10 +140,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -585,21 +576,14 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>Russian Language (Beginner Level)
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Russian Language (Elementary Level)
 09:00-10:30
 room:Green classroom: 204</t>
         </is>
       </c>
-      <c r="E6" s="6" t="inlineStr">
-        <is>
-          <t>Sociology
-09:00-10:30
-room:Yellow classroom: 209</t>
-        </is>
-      </c>
-      <c r="F6" s="7" t="inlineStr">
+      <c r="F6" s="6" t="inlineStr">
         <is>
           <t>Physics II
 09:00-10:30
@@ -613,9 +597,8 @@
           <t>09:15</t>
         </is>
       </c>
-      <c r="D7" s="8" t="n"/>
-      <c r="E7" s="8" t="n"/>
-      <c r="F7" s="8" t="n"/>
+      <c r="E7" s="7" t="n"/>
+      <c r="F7" s="7" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -623,9 +606,8 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="D8" s="8" t="n"/>
-      <c r="E8" s="8" t="n"/>
-      <c r="F8" s="8" t="n"/>
+      <c r="E8" s="7" t="n"/>
+      <c r="F8" s="7" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -633,9 +615,8 @@
           <t>09:45</t>
         </is>
       </c>
-      <c r="D9" s="8" t="n"/>
-      <c r="E9" s="8" t="n"/>
-      <c r="F9" s="8" t="n"/>
+      <c r="E9" s="7" t="n"/>
+      <c r="F9" s="7" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -643,9 +624,8 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="D10" s="8" t="n"/>
-      <c r="E10" s="8" t="n"/>
-      <c r="F10" s="8" t="n"/>
+      <c r="E10" s="7" t="n"/>
+      <c r="F10" s="7" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -653,9 +633,8 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="D11" s="9" t="n"/>
-      <c r="E11" s="9" t="n"/>
-      <c r="F11" s="9" t="n"/>
+      <c r="E11" s="8" t="n"/>
+      <c r="F11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
@@ -677,20 +656,41 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="C14" s="10" t="inlineStr">
-        <is>
-          <t>Programming II
-11:00-12:30
-room:Red classroom: 201</t>
-        </is>
-      </c>
-      <c r="D14" s="5" t="inlineStr">
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>Russian Language (Beginner Level)
 11:00-12:30
 room:Green classroom: 204</t>
         </is>
       </c>
+      <c r="C14" s="9" t="inlineStr">
+        <is>
+          <t>Russian Language (Beginner Level)
+11:00-12:30
+room:Yellow classroom: 209</t>
+        </is>
+      </c>
+      <c r="D14" s="10" t="inlineStr">
+        <is>
+          <t>Physics II
+11:00-12:30
+room:Red classroom: 201</t>
+        </is>
+      </c>
+      <c r="E14" s="9" t="inlineStr">
+        <is>
+          <t>Russian Language (Elementary Level)
+11:00-12:30
+room:Yellow classroom: 209</t>
+        </is>
+      </c>
+      <c r="F14" s="9" t="inlineStr">
+        <is>
+          <t>Russian Language (Intermediate Level)
+11:00-12:30
+room:Yellow classroom: 209</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
@@ -698,8 +698,11 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="C15" s="8" t="n"/>
-      <c r="D15" s="8" t="n"/>
+      <c r="B15" s="7" t="n"/>
+      <c r="C15" s="7" t="n"/>
+      <c r="D15" s="7" t="n"/>
+      <c r="E15" s="7" t="n"/>
+      <c r="F15" s="7" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
@@ -707,8 +710,11 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="C16" s="8" t="n"/>
-      <c r="D16" s="8" t="n"/>
+      <c r="B16" s="7" t="n"/>
+      <c r="C16" s="7" t="n"/>
+      <c r="D16" s="7" t="n"/>
+      <c r="E16" s="7" t="n"/>
+      <c r="F16" s="7" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
@@ -716,8 +722,11 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="C17" s="8" t="n"/>
-      <c r="D17" s="8" t="n"/>
+      <c r="B17" s="7" t="n"/>
+      <c r="C17" s="7" t="n"/>
+      <c r="D17" s="7" t="n"/>
+      <c r="E17" s="7" t="n"/>
+      <c r="F17" s="7" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
@@ -725,8 +734,11 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="C18" s="8" t="n"/>
-      <c r="D18" s="8" t="n"/>
+      <c r="B18" s="7" t="n"/>
+      <c r="C18" s="7" t="n"/>
+      <c r="D18" s="7" t="n"/>
+      <c r="E18" s="7" t="n"/>
+      <c r="F18" s="7" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
@@ -734,8 +746,11 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="C19" s="9" t="n"/>
-      <c r="D19" s="9" t="n"/>
+      <c r="B19" s="8" t="n"/>
+      <c r="C19" s="8" t="n"/>
+      <c r="D19" s="8" t="n"/>
+      <c r="E19" s="8" t="n"/>
+      <c r="F19" s="8" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -785,34 +800,34 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B26" s="10" t="inlineStr">
+      <c r="B26" s="9" t="inlineStr">
+        <is>
+          <t>Sociology
+14:00-15:30
+room:Yellow classroom: 209</t>
+        </is>
+      </c>
+      <c r="C26" s="10" t="inlineStr">
+        <is>
+          <t>Programming II
+14:00-15:30
+room:Red classroom: 201</t>
+        </is>
+      </c>
+      <c r="D26" s="9" t="inlineStr">
+        <is>
+          <t>Sociology
+14:00-15:30
+room:Yellow classroom: 209</t>
+        </is>
+      </c>
+      <c r="F26" s="10" t="inlineStr">
         <is>
           <t>Mathematics 2: Calculus II
 14:00-15:30
 room:Red classroom: 201</t>
         </is>
       </c>
-      <c r="C26" s="5" t="inlineStr">
-        <is>
-          <t>Russian Language (Elementary Level)
-14:00-15:30
-room:Green classroom: 204</t>
-        </is>
-      </c>
-      <c r="D26" s="5" t="inlineStr">
-        <is>
-          <t>Russian Language (Intermediate Level)
-14:00-15:30
-room:Green classroom: 204</t>
-        </is>
-      </c>
-      <c r="F26" s="10" t="inlineStr">
-        <is>
-          <t>Mathematics 2: Calculus II
-14:00-15:30
-room:Red classroom: 201</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
@@ -820,10 +835,10 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="B27" s="8" t="n"/>
-      <c r="C27" s="8" t="n"/>
-      <c r="D27" s="8" t="n"/>
-      <c r="F27" s="8" t="n"/>
+      <c r="B27" s="7" t="n"/>
+      <c r="C27" s="7" t="n"/>
+      <c r="D27" s="7" t="n"/>
+      <c r="F27" s="7" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
@@ -831,10 +846,10 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B28" s="8" t="n"/>
-      <c r="C28" s="8" t="n"/>
-      <c r="D28" s="8" t="n"/>
-      <c r="F28" s="8" t="n"/>
+      <c r="B28" s="7" t="n"/>
+      <c r="C28" s="7" t="n"/>
+      <c r="D28" s="7" t="n"/>
+      <c r="F28" s="7" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
@@ -842,10 +857,10 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="B29" s="8" t="n"/>
-      <c r="C29" s="8" t="n"/>
-      <c r="D29" s="8" t="n"/>
-      <c r="F29" s="8" t="n"/>
+      <c r="B29" s="7" t="n"/>
+      <c r="C29" s="7" t="n"/>
+      <c r="D29" s="7" t="n"/>
+      <c r="F29" s="7" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
@@ -853,10 +868,10 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B30" s="8" t="n"/>
-      <c r="C30" s="8" t="n"/>
-      <c r="D30" s="8" t="n"/>
-      <c r="F30" s="8" t="n"/>
+      <c r="B30" s="7" t="n"/>
+      <c r="C30" s="7" t="n"/>
+      <c r="D30" s="7" t="n"/>
+      <c r="F30" s="7" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -864,10 +879,10 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="B31" s="9" t="n"/>
-      <c r="C31" s="9" t="n"/>
-      <c r="D31" s="9" t="n"/>
-      <c r="F31" s="9" t="n"/>
+      <c r="B31" s="8" t="n"/>
+      <c r="C31" s="8" t="n"/>
+      <c r="D31" s="8" t="n"/>
+      <c r="F31" s="8" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
@@ -887,27 +902,6 @@
       <c r="A34" s="4" t="inlineStr">
         <is>
           <t>16:00</t>
-        </is>
-      </c>
-      <c r="B34" s="5" t="inlineStr">
-        <is>
-          <t>Russian Language (Intermediate Level)
-16:00-17:30
-room:Green classroom: 204</t>
-        </is>
-      </c>
-      <c r="C34" s="11" t="inlineStr">
-        <is>
-          <t>Russian Language (Elementary Level)
-16:00-17:30
-room:Grey classroom: 203</t>
-        </is>
-      </c>
-      <c r="E34" s="11" t="inlineStr">
-        <is>
-          <t>Sociology
-16:00-17:30
-room:Grey classroom: 203</t>
         </is>
       </c>
       <c r="F34" s="10" t="inlineStr">
@@ -924,10 +918,7 @@
           <t>16:15</t>
         </is>
       </c>
-      <c r="B35" s="8" t="n"/>
-      <c r="C35" s="8" t="n"/>
-      <c r="E35" s="8" t="n"/>
-      <c r="F35" s="8" t="n"/>
+      <c r="F35" s="7" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
@@ -935,10 +926,7 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B36" s="8" t="n"/>
-      <c r="C36" s="8" t="n"/>
-      <c r="E36" s="8" t="n"/>
-      <c r="F36" s="8" t="n"/>
+      <c r="F36" s="7" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
@@ -946,10 +934,7 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="B37" s="8" t="n"/>
-      <c r="C37" s="8" t="n"/>
-      <c r="E37" s="8" t="n"/>
-      <c r="F37" s="8" t="n"/>
+      <c r="F37" s="7" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
@@ -957,10 +942,7 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B38" s="8" t="n"/>
-      <c r="C38" s="8" t="n"/>
-      <c r="E38" s="8" t="n"/>
-      <c r="F38" s="8" t="n"/>
+      <c r="F38" s="7" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
@@ -968,10 +950,7 @@
           <t>17:15</t>
         </is>
       </c>
-      <c r="B39" s="9" t="n"/>
-      <c r="C39" s="9" t="n"/>
-      <c r="E39" s="9" t="n"/>
-      <c r="F39" s="9" t="n"/>
+      <c r="F39" s="8" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
@@ -1163,27 +1142,26 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="19">
     <mergeCell ref="B26:B31"/>
     <mergeCell ref="D26:D31"/>
-    <mergeCell ref="C34:C39"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="F34:F39"/>
-    <mergeCell ref="D6:D11"/>
     <mergeCell ref="F6:F11"/>
     <mergeCell ref="C14:C19"/>
+    <mergeCell ref="E14:E19"/>
     <mergeCell ref="C26:C31"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E34:E39"/>
+    <mergeCell ref="B14:B19"/>
     <mergeCell ref="F26:F31"/>
     <mergeCell ref="E6:E11"/>
-    <mergeCell ref="B34:B39"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="D14:D19"/>
+    <mergeCell ref="F14:F19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/xlsx_files/CS Freshmen.xlsx
+++ b/xlsx_files/CS Freshmen.xlsx
@@ -43,7 +43,7 @@
       <sz val="14"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -66,6 +66,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00FFFFFF"/>
         <bgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D0CECE"/>
+        <bgColor rgb="00D0CECE"/>
       </patternFill>
     </fill>
     <fill>
@@ -120,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -132,7 +138,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -140,10 +146,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -576,11 +585,25 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="E6" s="5" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Russian Language (Elementary Level)
 09:00-10:30
-room:Green classroom: 204</t>
+room:Yellow classroom: 209</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Russian Language (Intermediate Level)
+09:00-10:30
+room:Yellow classroom: 209</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Sociology
+09:00-10:30
+room:Yellow classroom: 209</t>
         </is>
       </c>
       <c r="F6" s="6" t="inlineStr">
@@ -597,6 +620,8 @@
           <t>09:15</t>
         </is>
       </c>
+      <c r="C7" s="7" t="n"/>
+      <c r="D7" s="7" t="n"/>
       <c r="E7" s="7" t="n"/>
       <c r="F7" s="7" t="n"/>
     </row>
@@ -606,6 +631,8 @@
           <t>09:30</t>
         </is>
       </c>
+      <c r="C8" s="7" t="n"/>
+      <c r="D8" s="7" t="n"/>
       <c r="E8" s="7" t="n"/>
       <c r="F8" s="7" t="n"/>
     </row>
@@ -615,6 +642,8 @@
           <t>09:45</t>
         </is>
       </c>
+      <c r="C9" s="7" t="n"/>
+      <c r="D9" s="7" t="n"/>
       <c r="E9" s="7" t="n"/>
       <c r="F9" s="7" t="n"/>
     </row>
@@ -624,6 +653,8 @@
           <t>10:00</t>
         </is>
       </c>
+      <c r="C10" s="7" t="n"/>
+      <c r="D10" s="7" t="n"/>
       <c r="E10" s="7" t="n"/>
       <c r="F10" s="7" t="n"/>
     </row>
@@ -633,6 +664,8 @@
           <t>10:15</t>
         </is>
       </c>
+      <c r="C11" s="8" t="n"/>
+      <c r="D11" s="8" t="n"/>
       <c r="E11" s="8" t="n"/>
       <c r="F11" s="8" t="n"/>
     </row>
@@ -656,39 +689,32 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B14" s="5" t="inlineStr">
+      <c r="B14" s="9" t="inlineStr">
+        <is>
+          <t>Mathematics 2: Calculus II
+11:00-12:30
+room:Red classroom: 201</t>
+        </is>
+      </c>
+      <c r="C14" s="9" t="inlineStr">
+        <is>
+          <t>Programming II
+11:00-12:30
+room:Red classroom: 201</t>
+        </is>
+      </c>
+      <c r="D14" s="9" t="inlineStr">
+        <is>
+          <t>Physics II
+11:00-12:30
+room:Red classroom: 201</t>
+        </is>
+      </c>
+      <c r="E14" s="10" t="inlineStr">
         <is>
           <t>Russian Language (Beginner Level)
 11:00-12:30
 room:Green classroom: 204</t>
-        </is>
-      </c>
-      <c r="C14" s="9" t="inlineStr">
-        <is>
-          <t>Russian Language (Beginner Level)
-11:00-12:30
-room:Yellow classroom: 209</t>
-        </is>
-      </c>
-      <c r="D14" s="10" t="inlineStr">
-        <is>
-          <t>Physics II
-11:00-12:30
-room:Red classroom: 201</t>
-        </is>
-      </c>
-      <c r="E14" s="9" t="inlineStr">
-        <is>
-          <t>Russian Language (Elementary Level)
-11:00-12:30
-room:Yellow classroom: 209</t>
-        </is>
-      </c>
-      <c r="F14" s="9" t="inlineStr">
-        <is>
-          <t>Russian Language (Intermediate Level)
-11:00-12:30
-room:Yellow classroom: 209</t>
         </is>
       </c>
     </row>
@@ -702,7 +728,6 @@
       <c r="C15" s="7" t="n"/>
       <c r="D15" s="7" t="n"/>
       <c r="E15" s="7" t="n"/>
-      <c r="F15" s="7" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
@@ -714,7 +739,6 @@
       <c r="C16" s="7" t="n"/>
       <c r="D16" s="7" t="n"/>
       <c r="E16" s="7" t="n"/>
-      <c r="F16" s="7" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
@@ -726,7 +750,6 @@
       <c r="C17" s="7" t="n"/>
       <c r="D17" s="7" t="n"/>
       <c r="E17" s="7" t="n"/>
-      <c r="F17" s="7" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
@@ -738,7 +761,6 @@
       <c r="C18" s="7" t="n"/>
       <c r="D18" s="7" t="n"/>
       <c r="E18" s="7" t="n"/>
-      <c r="F18" s="7" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
@@ -750,7 +772,6 @@
       <c r="C19" s="8" t="n"/>
       <c r="D19" s="8" t="n"/>
       <c r="E19" s="8" t="n"/>
-      <c r="F19" s="8" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -802,26 +823,19 @@
       </c>
       <c r="B26" s="9" t="inlineStr">
         <is>
-          <t>Sociology
-14:00-15:30
-room:Yellow classroom: 209</t>
-        </is>
-      </c>
-      <c r="C26" s="10" t="inlineStr">
-        <is>
-          <t>Programming II
+          <t>Physics II
 14:00-15:30
 room:Red classroom: 201</t>
         </is>
       </c>
-      <c r="D26" s="9" t="inlineStr">
-        <is>
-          <t>Sociology
+      <c r="C26" s="10" t="inlineStr">
+        <is>
+          <t>Russian Language (Elementary Level)
 14:00-15:30
-room:Yellow classroom: 209</t>
-        </is>
-      </c>
-      <c r="F26" s="10" t="inlineStr">
+room:Green classroom: 204</t>
+        </is>
+      </c>
+      <c r="F26" s="9" t="inlineStr">
         <is>
           <t>Mathematics 2: Calculus II
 14:00-15:30
@@ -837,7 +851,6 @@
       </c>
       <c r="B27" s="7" t="n"/>
       <c r="C27" s="7" t="n"/>
-      <c r="D27" s="7" t="n"/>
       <c r="F27" s="7" t="n"/>
     </row>
     <row r="28">
@@ -848,7 +861,6 @@
       </c>
       <c r="B28" s="7" t="n"/>
       <c r="C28" s="7" t="n"/>
-      <c r="D28" s="7" t="n"/>
       <c r="F28" s="7" t="n"/>
     </row>
     <row r="29">
@@ -859,7 +871,6 @@
       </c>
       <c r="B29" s="7" t="n"/>
       <c r="C29" s="7" t="n"/>
-      <c r="D29" s="7" t="n"/>
       <c r="F29" s="7" t="n"/>
     </row>
     <row r="30">
@@ -870,7 +881,6 @@
       </c>
       <c r="B30" s="7" t="n"/>
       <c r="C30" s="7" t="n"/>
-      <c r="D30" s="7" t="n"/>
       <c r="F30" s="7" t="n"/>
     </row>
     <row r="31">
@@ -881,7 +891,6 @@
       </c>
       <c r="B31" s="8" t="n"/>
       <c r="C31" s="8" t="n"/>
-      <c r="D31" s="8" t="n"/>
       <c r="F31" s="8" t="n"/>
     </row>
     <row r="32">
@@ -904,7 +913,21 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="F34" s="10" t="inlineStr">
+      <c r="B34" s="10" t="inlineStr">
+        <is>
+          <t>Russian Language (Intermediate Level)
+16:00-17:30
+room:Green classroom: 204</t>
+        </is>
+      </c>
+      <c r="C34" s="11" t="inlineStr">
+        <is>
+          <t>Sociology
+16:00-17:30
+room:Grey classroom: 203</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="inlineStr">
         <is>
           <t>Programming II
 16:00-17:30
@@ -918,6 +941,8 @@
           <t>16:15</t>
         </is>
       </c>
+      <c r="B35" s="7" t="n"/>
+      <c r="C35" s="7" t="n"/>
       <c r="F35" s="7" t="n"/>
     </row>
     <row r="36">
@@ -926,6 +951,8 @@
           <t>16:30</t>
         </is>
       </c>
+      <c r="B36" s="7" t="n"/>
+      <c r="C36" s="7" t="n"/>
       <c r="F36" s="7" t="n"/>
     </row>
     <row r="37">
@@ -934,6 +961,8 @@
           <t>16:45</t>
         </is>
       </c>
+      <c r="B37" s="7" t="n"/>
+      <c r="C37" s="7" t="n"/>
       <c r="F37" s="7" t="n"/>
     </row>
     <row r="38">
@@ -942,6 +971,8 @@
           <t>17:00</t>
         </is>
       </c>
+      <c r="B38" s="7" t="n"/>
+      <c r="C38" s="7" t="n"/>
       <c r="F38" s="7" t="n"/>
     </row>
     <row r="39">
@@ -950,6 +981,8 @@
           <t>17:15</t>
         </is>
       </c>
+      <c r="B39" s="8" t="n"/>
+      <c r="C39" s="8" t="n"/>
       <c r="F39" s="8" t="n"/>
     </row>
     <row r="40">
@@ -1142,13 +1175,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="21">
     <mergeCell ref="B26:B31"/>
-    <mergeCell ref="D26:D31"/>
+    <mergeCell ref="C34:C39"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="F3:F4"/>
+    <mergeCell ref="C6:C11"/>
     <mergeCell ref="F34:F39"/>
+    <mergeCell ref="D6:D11"/>
     <mergeCell ref="F6:F11"/>
     <mergeCell ref="C14:C19"/>
     <mergeCell ref="E14:E19"/>
@@ -1158,10 +1193,10 @@
     <mergeCell ref="B14:B19"/>
     <mergeCell ref="F26:F31"/>
     <mergeCell ref="E6:E11"/>
+    <mergeCell ref="B34:B39"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="D14:D19"/>
-    <mergeCell ref="F14:F19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/xlsx_files/CS Freshmen.xlsx
+++ b/xlsx_files/CS Freshmen.xlsx
@@ -43,7 +43,7 @@
       <sz val="14"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -58,26 +58,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00FFFFFF"/>
         <bgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D0CECE"/>
-        <bgColor rgb="00D0CECE"/>
+        <fgColor rgb="0092D050"/>
+        <bgColor rgb="0092D050"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0092D050"/>
-        <bgColor rgb="0092D050"/>
+        <fgColor rgb="00D0CECE"/>
+        <bgColor rgb="00D0CECE"/>
       </patternFill>
     </fill>
     <fill>
@@ -126,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -138,21 +132,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -585,32 +576,32 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Sociology
+09:00-10:30
+room:104</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>Russian Language (Elementary Level)
 09:00-10:30
-room:Yellow classroom: 209</t>
-        </is>
-      </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>Russian Language (Intermediate Level)
+room:203</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Physics II
 09:00-10:30
-room:Yellow classroom: 209</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="inlineStr">
+room:202</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>Sociology
 09:00-10:30
-room:Yellow classroom: 209</t>
-        </is>
-      </c>
-      <c r="F6" s="6" t="inlineStr">
-        <is>
-          <t>Physics II
-09:00-10:30
-room:White classroom: 202</t>
+room:104</t>
         </is>
       </c>
     </row>
@@ -620,8 +611,8 @@
           <t>09:15</t>
         </is>
       </c>
+      <c r="B7" s="7" t="n"/>
       <c r="C7" s="7" t="n"/>
-      <c r="D7" s="7" t="n"/>
       <c r="E7" s="7" t="n"/>
       <c r="F7" s="7" t="n"/>
     </row>
@@ -631,8 +622,8 @@
           <t>09:30</t>
         </is>
       </c>
+      <c r="B8" s="7" t="n"/>
       <c r="C8" s="7" t="n"/>
-      <c r="D8" s="7" t="n"/>
       <c r="E8" s="7" t="n"/>
       <c r="F8" s="7" t="n"/>
     </row>
@@ -642,8 +633,8 @@
           <t>09:45</t>
         </is>
       </c>
+      <c r="B9" s="7" t="n"/>
       <c r="C9" s="7" t="n"/>
-      <c r="D9" s="7" t="n"/>
       <c r="E9" s="7" t="n"/>
       <c r="F9" s="7" t="n"/>
     </row>
@@ -653,8 +644,8 @@
           <t>10:00</t>
         </is>
       </c>
+      <c r="B10" s="7" t="n"/>
       <c r="C10" s="7" t="n"/>
-      <c r="D10" s="7" t="n"/>
       <c r="E10" s="7" t="n"/>
       <c r="F10" s="7" t="n"/>
     </row>
@@ -664,8 +655,8 @@
           <t>10:15</t>
         </is>
       </c>
+      <c r="B11" s="8" t="n"/>
       <c r="C11" s="8" t="n"/>
-      <c r="D11" s="8" t="n"/>
       <c r="E11" s="8" t="n"/>
       <c r="F11" s="8" t="n"/>
     </row>
@@ -689,32 +680,25 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B14" s="9" t="inlineStr">
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>Mathematics 2: Calculus II
 11:00-12:30
-room:Red classroom: 201</t>
-        </is>
-      </c>
-      <c r="C14" s="9" t="inlineStr">
+room:202</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>Programming II
 11:00-12:30
-room:Red classroom: 201</t>
-        </is>
-      </c>
-      <c r="D14" s="9" t="inlineStr">
-        <is>
-          <t>Physics II
-11:00-12:30
-room:Red classroom: 201</t>
-        </is>
-      </c>
-      <c r="E14" s="10" t="inlineStr">
-        <is>
-          <t>Russian Language (Beginner Level)
-11:00-12:30
-room:Green classroom: 204</t>
+room:202</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="inlineStr">
+        <is>
+          <t>Physical training
+11:00-13:00
+room:100</t>
         </is>
       </c>
     </row>
@@ -726,7 +710,6 @@
       </c>
       <c r="B15" s="7" t="n"/>
       <c r="C15" s="7" t="n"/>
-      <c r="D15" s="7" t="n"/>
       <c r="E15" s="7" t="n"/>
     </row>
     <row r="16">
@@ -737,7 +720,6 @@
       </c>
       <c r="B16" s="7" t="n"/>
       <c r="C16" s="7" t="n"/>
-      <c r="D16" s="7" t="n"/>
       <c r="E16" s="7" t="n"/>
     </row>
     <row r="17">
@@ -748,7 +730,6 @@
       </c>
       <c r="B17" s="7" t="n"/>
       <c r="C17" s="7" t="n"/>
-      <c r="D17" s="7" t="n"/>
       <c r="E17" s="7" t="n"/>
     </row>
     <row r="18">
@@ -759,7 +740,6 @@
       </c>
       <c r="B18" s="7" t="n"/>
       <c r="C18" s="7" t="n"/>
-      <c r="D18" s="7" t="n"/>
       <c r="E18" s="7" t="n"/>
     </row>
     <row r="19">
@@ -770,8 +750,7 @@
       </c>
       <c r="B19" s="8" t="n"/>
       <c r="C19" s="8" t="n"/>
-      <c r="D19" s="8" t="n"/>
-      <c r="E19" s="8" t="n"/>
+      <c r="E19" s="7" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -779,6 +758,7 @@
           <t>12:30</t>
         </is>
       </c>
+      <c r="E20" s="7" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
@@ -786,6 +766,7 @@
           <t>12:45</t>
         </is>
       </c>
+      <c r="E21" s="8" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
@@ -823,23 +804,30 @@
       </c>
       <c r="B26" s="9" t="inlineStr">
         <is>
+          <t>Russian Language (Intermediate Level)
+14:00-15:30
+room:209</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>Mathematics 2: Calculus II
+14:00-15:30
+room:104</t>
+        </is>
+      </c>
+      <c r="E26" s="10" t="inlineStr">
+        <is>
+          <t>Programming II
+14:00-15:30
+room:204</t>
+        </is>
+      </c>
+      <c r="F26" s="6" t="inlineStr">
+        <is>
           <t>Physics II
 14:00-15:30
-room:Red classroom: 201</t>
-        </is>
-      </c>
-      <c r="C26" s="10" t="inlineStr">
-        <is>
-          <t>Russian Language (Elementary Level)
-14:00-15:30
-room:Green classroom: 204</t>
-        </is>
-      </c>
-      <c r="F26" s="9" t="inlineStr">
-        <is>
-          <t>Mathematics 2: Calculus II
-14:00-15:30
-room:Red classroom: 201</t>
+room:203</t>
         </is>
       </c>
     </row>
@@ -851,6 +839,7 @@
       </c>
       <c r="B27" s="7" t="n"/>
       <c r="C27" s="7" t="n"/>
+      <c r="E27" s="7" t="n"/>
       <c r="F27" s="7" t="n"/>
     </row>
     <row r="28">
@@ -861,6 +850,7 @@
       </c>
       <c r="B28" s="7" t="n"/>
       <c r="C28" s="7" t="n"/>
+      <c r="E28" s="7" t="n"/>
       <c r="F28" s="7" t="n"/>
     </row>
     <row r="29">
@@ -871,6 +861,7 @@
       </c>
       <c r="B29" s="7" t="n"/>
       <c r="C29" s="7" t="n"/>
+      <c r="E29" s="7" t="n"/>
       <c r="F29" s="7" t="n"/>
     </row>
     <row r="30">
@@ -881,6 +872,7 @@
       </c>
       <c r="B30" s="7" t="n"/>
       <c r="C30" s="7" t="n"/>
+      <c r="E30" s="7" t="n"/>
       <c r="F30" s="7" t="n"/>
     </row>
     <row r="31">
@@ -891,6 +883,7 @@
       </c>
       <c r="B31" s="8" t="n"/>
       <c r="C31" s="8" t="n"/>
+      <c r="E31" s="8" t="n"/>
       <c r="F31" s="8" t="n"/>
     </row>
     <row r="32">
@@ -913,25 +906,25 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B34" s="10" t="inlineStr">
+      <c r="B34" s="5" t="inlineStr">
+        <is>
+          <t>Physics II
+16:00-17:30
+room:202</t>
+        </is>
+      </c>
+      <c r="E34" s="9" t="inlineStr">
         <is>
           <t>Russian Language (Intermediate Level)
 16:00-17:30
-room:Green classroom: 204</t>
-        </is>
-      </c>
-      <c r="C34" s="11" t="inlineStr">
-        <is>
-          <t>Sociology
+room:209</t>
+        </is>
+      </c>
+      <c r="F34" s="5" t="inlineStr">
+        <is>
+          <t>Russian Language (Beginner Level)
 16:00-17:30
-room:Grey classroom: 203</t>
-        </is>
-      </c>
-      <c r="F34" s="9" t="inlineStr">
-        <is>
-          <t>Programming II
-16:00-17:30
-room:Red classroom: 201</t>
+room:202</t>
         </is>
       </c>
     </row>
@@ -942,7 +935,7 @@
         </is>
       </c>
       <c r="B35" s="7" t="n"/>
-      <c r="C35" s="7" t="n"/>
+      <c r="E35" s="7" t="n"/>
       <c r="F35" s="7" t="n"/>
     </row>
     <row r="36">
@@ -952,7 +945,7 @@
         </is>
       </c>
       <c r="B36" s="7" t="n"/>
-      <c r="C36" s="7" t="n"/>
+      <c r="E36" s="7" t="n"/>
       <c r="F36" s="7" t="n"/>
     </row>
     <row r="37">
@@ -962,7 +955,7 @@
         </is>
       </c>
       <c r="B37" s="7" t="n"/>
-      <c r="C37" s="7" t="n"/>
+      <c r="E37" s="7" t="n"/>
       <c r="F37" s="7" t="n"/>
     </row>
     <row r="38">
@@ -972,7 +965,7 @@
         </is>
       </c>
       <c r="B38" s="7" t="n"/>
-      <c r="C38" s="7" t="n"/>
+      <c r="E38" s="7" t="n"/>
       <c r="F38" s="7" t="n"/>
     </row>
     <row r="39">
@@ -982,7 +975,7 @@
         </is>
       </c>
       <c r="B39" s="8" t="n"/>
-      <c r="C39" s="8" t="n"/>
+      <c r="E39" s="8" t="n"/>
       <c r="F39" s="8" t="n"/>
     </row>
     <row r="40">
@@ -1175,28 +1168,29 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
     <mergeCell ref="B26:B31"/>
-    <mergeCell ref="C34:C39"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="C6:C11"/>
     <mergeCell ref="F34:F39"/>
-    <mergeCell ref="D6:D11"/>
+    <mergeCell ref="C14:C19"/>
     <mergeCell ref="F6:F11"/>
-    <mergeCell ref="C14:C19"/>
     <mergeCell ref="E14:E19"/>
     <mergeCell ref="C26:C31"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E14:E21"/>
+    <mergeCell ref="E34:E39"/>
     <mergeCell ref="B14:B19"/>
     <mergeCell ref="F26:F31"/>
     <mergeCell ref="E6:E11"/>
     <mergeCell ref="B34:B39"/>
+    <mergeCell ref="E26:E31"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="B6:B11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/xlsx_files/CS Freshmen.xlsx
+++ b/xlsx_files/CS Freshmen.xlsx
@@ -43,7 +43,7 @@
       <sz val="14"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -58,20 +58,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
-        <bgColor rgb="00FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="0092D050"/>
         <bgColor rgb="0092D050"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00D0CECE"/>
         <bgColor rgb="00D0CECE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -120,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -132,18 +138,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -576,31 +579,17 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="E6" s="5" t="inlineStr">
         <is>
           <t>Sociology
 09:00-10:30
-room:104</t>
-        </is>
-      </c>
-      <c r="C6" s="6" t="inlineStr">
+room:203</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="inlineStr">
         <is>
           <t>Russian Language (Elementary Level)
 09:00-10:30
-room:203</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>Physics II
-09:00-10:30
-room:202</t>
-        </is>
-      </c>
-      <c r="F6" s="5" t="inlineStr">
-        <is>
-          <t>Sociology
-09:00-10:30
 room:104</t>
         </is>
       </c>
@@ -611,8 +600,6 @@
           <t>09:15</t>
         </is>
       </c>
-      <c r="B7" s="7" t="n"/>
-      <c r="C7" s="7" t="n"/>
       <c r="E7" s="7" t="n"/>
       <c r="F7" s="7" t="n"/>
     </row>
@@ -622,8 +609,6 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B8" s="7" t="n"/>
-      <c r="C8" s="7" t="n"/>
       <c r="E8" s="7" t="n"/>
       <c r="F8" s="7" t="n"/>
     </row>
@@ -633,8 +618,6 @@
           <t>09:45</t>
         </is>
       </c>
-      <c r="B9" s="7" t="n"/>
-      <c r="C9" s="7" t="n"/>
       <c r="E9" s="7" t="n"/>
       <c r="F9" s="7" t="n"/>
     </row>
@@ -644,8 +627,6 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B10" s="7" t="n"/>
-      <c r="C10" s="7" t="n"/>
       <c r="E10" s="7" t="n"/>
       <c r="F10" s="7" t="n"/>
     </row>
@@ -655,8 +636,6 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="B11" s="8" t="n"/>
-      <c r="C11" s="8" t="n"/>
       <c r="E11" s="8" t="n"/>
       <c r="F11" s="8" t="n"/>
     </row>
@@ -680,25 +659,25 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B14" s="5" t="inlineStr">
-        <is>
-          <t>Mathematics 2: Calculus II
-11:00-12:30
-room:202</t>
-        </is>
-      </c>
-      <c r="C14" s="5" t="inlineStr">
+      <c r="B14" s="6" t="inlineStr">
         <is>
           <t>Programming II
 11:00-12:30
 room:202</t>
         </is>
       </c>
-      <c r="E14" s="5" t="inlineStr">
-        <is>
-          <t>Physical training
-11:00-13:00
-room:100</t>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>Sociology
+11:00-12:30
+room:203</t>
+        </is>
+      </c>
+      <c r="D14" s="6" t="inlineStr">
+        <is>
+          <t>Programming II
+11:00-12:30
+room:104</t>
         </is>
       </c>
     </row>
@@ -710,7 +689,7 @@
       </c>
       <c r="B15" s="7" t="n"/>
       <c r="C15" s="7" t="n"/>
-      <c r="E15" s="7" t="n"/>
+      <c r="D15" s="7" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
@@ -720,7 +699,7 @@
       </c>
       <c r="B16" s="7" t="n"/>
       <c r="C16" s="7" t="n"/>
-      <c r="E16" s="7" t="n"/>
+      <c r="D16" s="7" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
@@ -730,7 +709,7 @@
       </c>
       <c r="B17" s="7" t="n"/>
       <c r="C17" s="7" t="n"/>
-      <c r="E17" s="7" t="n"/>
+      <c r="D17" s="7" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
@@ -740,7 +719,7 @@
       </c>
       <c r="B18" s="7" t="n"/>
       <c r="C18" s="7" t="n"/>
-      <c r="E18" s="7" t="n"/>
+      <c r="D18" s="7" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
@@ -750,7 +729,7 @@
       </c>
       <c r="B19" s="8" t="n"/>
       <c r="C19" s="8" t="n"/>
-      <c r="E19" s="7" t="n"/>
+      <c r="D19" s="8" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -758,7 +737,6 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="E20" s="7" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
@@ -766,7 +744,6 @@
           <t>12:45</t>
         </is>
       </c>
-      <c r="E21" s="8" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
@@ -802,34 +779,20 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B26" s="9" t="inlineStr">
+      <c r="C26" s="9" t="inlineStr">
         <is>
           <t>Russian Language (Intermediate Level)
 14:00-15:30
-room:209</t>
-        </is>
-      </c>
-      <c r="C26" s="5" t="inlineStr">
-        <is>
-          <t>Mathematics 2: Calculus II
-14:00-15:30
-room:104</t>
-        </is>
-      </c>
-      <c r="E26" s="10" t="inlineStr">
-        <is>
-          <t>Programming II
+room:204</t>
+        </is>
+      </c>
+      <c r="E26" s="9" t="inlineStr">
+        <is>
+          <t>Russian Language (Intermediate Level)
 14:00-15:30
 room:204</t>
         </is>
       </c>
-      <c r="F26" s="6" t="inlineStr">
-        <is>
-          <t>Physics II
-14:00-15:30
-room:203</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
@@ -837,10 +800,8 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="B27" s="7" t="n"/>
       <c r="C27" s="7" t="n"/>
       <c r="E27" s="7" t="n"/>
-      <c r="F27" s="7" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
@@ -848,10 +809,8 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B28" s="7" t="n"/>
       <c r="C28" s="7" t="n"/>
       <c r="E28" s="7" t="n"/>
-      <c r="F28" s="7" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
@@ -859,10 +818,8 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="B29" s="7" t="n"/>
       <c r="C29" s="7" t="n"/>
       <c r="E29" s="7" t="n"/>
-      <c r="F29" s="7" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
@@ -870,10 +827,8 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B30" s="7" t="n"/>
       <c r="C30" s="7" t="n"/>
       <c r="E30" s="7" t="n"/>
-      <c r="F30" s="7" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -881,10 +836,8 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="B31" s="8" t="n"/>
       <c r="C31" s="8" t="n"/>
       <c r="E31" s="8" t="n"/>
-      <c r="F31" s="8" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
@@ -906,25 +859,18 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B34" s="5" t="inlineStr">
+      <c r="B34" s="6" t="inlineStr">
         <is>
           <t>Physics II
 16:00-17:30
-room:202</t>
-        </is>
-      </c>
-      <c r="E34" s="9" t="inlineStr">
-        <is>
-          <t>Russian Language (Intermediate Level)
-16:00-17:30
-room:209</t>
-        </is>
-      </c>
-      <c r="F34" s="5" t="inlineStr">
-        <is>
-          <t>Russian Language (Beginner Level)
-16:00-17:30
-room:202</t>
+room:104</t>
+        </is>
+      </c>
+      <c r="C34" s="6" t="inlineStr">
+        <is>
+          <t>Physical training
+16:00-18:00
+room:100</t>
         </is>
       </c>
     </row>
@@ -935,8 +881,7 @@
         </is>
       </c>
       <c r="B35" s="7" t="n"/>
-      <c r="E35" s="7" t="n"/>
-      <c r="F35" s="7" t="n"/>
+      <c r="C35" s="7" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
@@ -945,8 +890,7 @@
         </is>
       </c>
       <c r="B36" s="7" t="n"/>
-      <c r="E36" s="7" t="n"/>
-      <c r="F36" s="7" t="n"/>
+      <c r="C36" s="7" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
@@ -955,8 +899,7 @@
         </is>
       </c>
       <c r="B37" s="7" t="n"/>
-      <c r="E37" s="7" t="n"/>
-      <c r="F37" s="7" t="n"/>
+      <c r="C37" s="7" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
@@ -965,8 +908,7 @@
         </is>
       </c>
       <c r="B38" s="7" t="n"/>
-      <c r="E38" s="7" t="n"/>
-      <c r="F38" s="7" t="n"/>
+      <c r="C38" s="7" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
@@ -975,8 +917,7 @@
         </is>
       </c>
       <c r="B39" s="8" t="n"/>
-      <c r="E39" s="8" t="n"/>
-      <c r="F39" s="8" t="n"/>
+      <c r="C39" s="7" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
@@ -984,6 +925,7 @@
           <t>17:30</t>
         </is>
       </c>
+      <c r="C40" s="7" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="4" t="inlineStr">
@@ -991,6 +933,7 @@
           <t>17:45</t>
         </is>
       </c>
+      <c r="C41" s="8" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="4" t="inlineStr">
@@ -1168,29 +1111,24 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="B26:B31"/>
+  <mergeCells count="17">
+    <mergeCell ref="F6:F11"/>
+    <mergeCell ref="E26:E31"/>
+    <mergeCell ref="C34:C39"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="C3:C4"/>
     <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="B1:G1"/>
+    <mergeCell ref="C14:C19"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="C6:C11"/>
-    <mergeCell ref="F34:F39"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="F6:F11"/>
-    <mergeCell ref="E14:E19"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="A3:A4"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E14:E21"/>
-    <mergeCell ref="E34:E39"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="E6:E11"/>
+    <mergeCell ref="C34:C41"/>
+    <mergeCell ref="D14:D19"/>
     <mergeCell ref="B14:B19"/>
-    <mergeCell ref="F26:F31"/>
-    <mergeCell ref="E6:E11"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="E26:E31"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="B6:B11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
